--- a/projects/duty_roster_scheduler/readme/table_schemas.xlsx
+++ b/projects/duty_roster_scheduler/readme/table_schemas.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\projects\duty_roster_scheduler\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEA81A7-3C67-4120-AC09-167307FA6B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE738A-BA3B-4263-B6F6-8747042583D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D5AD342F-B044-4096-B18C-A0EE503DE9D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="10" xr2:uid="{D5AD342F-B044-4096-B18C-A0EE503DE9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
     <sheet name="employee_address" sheetId="2" r:id="rId2"/>
     <sheet name="employee_contact" sheetId="3" r:id="rId3"/>
     <sheet name="employee_identity" sheetId="5" r:id="rId4"/>
-    <sheet name="employee_department" sheetId="6" r:id="rId5"/>
-    <sheet name="employee_compensation" sheetId="8" r:id="rId6"/>
-    <sheet name="employee_duty" sheetId="7" r:id="rId7"/>
-    <sheet name="employee_leave" sheetId="9" r:id="rId8"/>
-    <sheet name="mnemonic_data" sheetId="4" r:id="rId9"/>
+    <sheet name="department" sheetId="6" r:id="rId5"/>
+    <sheet name="dutycatalog" sheetId="12" r:id="rId6"/>
+    <sheet name="bk-employee_compensation" sheetId="8" r:id="rId7"/>
+    <sheet name="employee_duty" sheetId="7" r:id="rId8"/>
+    <sheet name="employee_leave" sheetId="9" r:id="rId9"/>
+    <sheet name="mnemonic_data" sheetId="4" r:id="rId10"/>
+    <sheet name="department_data" sheetId="10" r:id="rId11"/>
+    <sheet name="dutycatalog_data" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
   <si>
     <t>Employee number</t>
   </si>
@@ -142,30 +145,12 @@
     <t>identity_type</t>
   </si>
   <si>
-    <t>identity_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document_url </t>
-  </si>
-  <si>
     <t>end_date</t>
   </si>
   <si>
-    <t>department_name</t>
-  </si>
-  <si>
     <t>descrption</t>
   </si>
   <si>
-    <t>manager_name</t>
-  </si>
-  <si>
-    <t>shift_name</t>
-  </si>
-  <si>
-    <t>shift_time</t>
-  </si>
-  <si>
     <t>wage</t>
   </si>
   <si>
@@ -307,15 +292,6 @@
     <t>identity_value</t>
   </si>
   <si>
-    <t xml:space="preserve">aadar_id </t>
-  </si>
-  <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">election_id </t>
-  </si>
-  <si>
     <t>Aadhaar</t>
   </si>
   <si>
@@ -347,16 +323,187 @@
   </si>
   <si>
     <t>ration_card</t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t>no_formal_education</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>high_school</t>
+  </si>
+  <si>
+    <t>secondary_school</t>
+  </si>
+  <si>
+    <t>under_graduate</t>
+  </si>
+  <si>
+    <t>post_graduate</t>
+  </si>
+  <si>
+    <t>doctorate</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Doctorate</t>
+  </si>
+  <si>
+    <t>Post Graduate</t>
+  </si>
+  <si>
+    <t>Under Graduate</t>
+  </si>
+  <si>
+    <t>Secondary School</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Primary School</t>
+  </si>
+  <si>
+    <t>No Formal Education</t>
+  </si>
+  <si>
+    <t>number_of_leaves</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>duty_code</t>
+  </si>
+  <si>
+    <t>duty_date</t>
+  </si>
+  <si>
+    <t>duty_description</t>
+  </si>
+  <si>
+    <t>="conn.execute("&amp;CHAR(34)&amp;"INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>leaves_per_month</t>
+  </si>
+  <si>
+    <t>primary_duty_code</t>
+  </si>
+  <si>
+    <t>salary_type_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> department_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> department_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duty_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duty_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duty_description </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salary_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> default_salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> default_department</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>D103</t>
+  </si>
+  <si>
+    <t>D104</t>
+  </si>
+  <si>
+    <t>D105</t>
+  </si>
+  <si>
+    <t>D106</t>
+  </si>
+  <si>
+    <t>D107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -718,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52891C05-9744-4444-BF2E-DED199EA908D}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -823,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,12 +978,1023 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6D7F0D-EB63-448C-9CEB-8C7A21091384}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="147.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="str">
+        <f>"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES ("&amp;A9&amp;", '"&amp;B9&amp;"', '"&amp;C9&amp;"', '"&amp;D9&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (1, 'address_id', 'door_number', 'Door Number');");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H51" si="0">"conn.execute(""INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES ("&amp;A10&amp;", '"&amp;B10&amp;"', '"&amp;C10&amp;"', '"&amp;D10&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (2, 'address_id', 'street_name1', 'Street Name 1');");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (3, 'address_id', 'street_name2', 'Street Name 2');");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (4, 'address_id', 'city', 'City');");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (5, 'address_id', 'district', 'District');");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (6, 'address_id', 'state', 'State');");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (7, 'address_id', 'country', 'Country');");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (8, 'address_id', 'pin', 'Pin');");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (9, 'duty_shift_id', 'morning_shift', 'Morning Shift');");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (10, 'duty_shift_id', 'evening_shift', 'Evening Shift');");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (11, 'duty_shift_id', 'night_shift', 'Night Shift');");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (12, 'duty_shift_id', 'normal_shift', 'Normal Shift');");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (13, 'duty_shift_id', 'adhoc', 'AD-Hoc');");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (14, 'duty_shift_timing', 'morning_time', '6 am to 2 pm ');");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (15, 'duty_shift_timing', 'evening_time', '2 pm to 8 pm ');");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (16, 'duty_shift_timing', 'night_time', '8 pm to 6 am');");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (17, 'duty_shift_timing', 'normal_time', '8 am to 6 pm ');");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (18, 'duty_shift_timing', 'adhoc_time', 'any time ');");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (19, 'contact_id', 'mobile_number', 'Mobile Number');");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (20, 'contact_id', 'phone_number', 'Phone Number');");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (21, 'contact_id', 'email_id', 'Email ID');");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (22, 'identity_proof', 'aadhaar', 'Aadhaar');");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (23, 'identity_proof', 'passport ', 'Passport ');");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (24, 'identity_proof', 'election_card', 'Election Card');");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (25, 'identity_proof', 'driving_license', 'Driving License');");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (26, 'identity_proof', 'ration_card', 'Ration Card');");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (27, 'qualification', 'no_formal_education', 'No Formal Education');");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (28, 'qualification', 'primary', 'Primary School');");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (29, 'qualification', 'high_school', 'High School');");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (30, 'qualification', 'secondary_school', 'Secondary School');");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (31, 'qualification', 'under_graduate', 'Under Graduate');");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (32, 'qualification', 'post_graduate', 'Post Graduate');");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (33, 'qualification', 'doctorate', 'Doctorate');");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (34, 'qualification', 'other', 'Other');");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (35, 'number_of_leaves', 'zero', '0');");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (36, 'number_of_leaves', 'one', '1');");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (37, 'number_of_leaves', 'two', '2');");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (38, 'number_of_leaves', 'three', '3');");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (39, 'number_of_leaves', 'four', '4');");</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (40, 'number_of_leaves', 'five', '5');");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (41, 'number_of_leaves', 'six', '6');");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (42, 'number_of_leaves', 'seven', '7');");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (43, 'number_of_leaves', 'eight', '8');");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EDAC52-C15F-477B-B341-0F6A199905B2}">
+  <dimension ref="B5:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0731AE-4A71-4811-8F62-CFBA8D7DAF6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -887,7 +2045,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +2058,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,15 +2128,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A363DA09-DE7D-450A-9709-3F4726C4462F}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,37 +2194,171 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2FEB6E-F4F6-413C-9CCC-8F9D19A0E155}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF69DC8E-B3E5-4DDB-93FC-2B5EC8F686A1}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB3810-5D9B-45D3-B5FD-C42B5A921CF7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1073,12 +2366,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2FEB6E-F4F6-413C-9CCC-8F9D19A0E155}">
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B950E97-D284-49DE-A5E7-F4E54CF6EAE5}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,27 +2394,17 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1129,103 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CB3810-5D9B-45D3-B5FD-C42B5A921CF7}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B950E97-D284-49DE-A5E7-F4E54CF6EAE5}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF7878-9019-4674-BED6-E8DE8396E12C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1237,579 +2424,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6D7F0D-EB63-448C-9CEB-8C7A21091384}">
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="147.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="str">
-        <f>"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES ("&amp;A9&amp;", '"&amp;B9&amp;"', '"&amp;C9&amp;"', '"&amp;D9&amp;"');"");"</f>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (1, 'address_id', 'door_number', 'Door Number');");</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ref="H10:H34" si="0">"conn.execute(""INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES ("&amp;A10&amp;", '"&amp;B10&amp;"', '"&amp;C10&amp;"', '"&amp;D10&amp;"');"");"</f>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (2, 'address_id', 'street_name1', 'Street Name 1');");</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (3, 'address_id', 'street_name2', 'Street Name 2');");</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (4, 'address_id', 'city', 'City');");</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (5, 'address_id', 'district', 'District');");</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (6, 'address_id', 'state', 'State');");</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (7, 'address_id', 'country', 'Country');");</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (8, 'address_id', 'pin', 'Pin');");</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (9, 'duty_shift_id', 'morning_shift', 'Morning Shift');");</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (10, 'duty_shift_id', 'evening_shift', 'Evening Shift');");</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (11, 'duty_shift_id', 'night_shift', 'Night Shift');");</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (12, 'duty_shift_id', 'normal_shift', 'Normal Shift');");</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (13, 'duty_shift_id', 'adhoc', 'AD-Hoc');");</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (14, 'duty_shift_timing', 'morning_time', '6 am to 2 pm ');");</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (15, 'duty_shift_timing', 'evening_time', '2 pm to 8 pm ');");</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (16, 'duty_shift_timing', 'night_time', '8 pm to 6 am');");</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (17, 'duty_shift_timing', 'normal_time', '8 am to 6 pm ');");</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (18, 'duty_shift_timing', 'adhoc_time', 'any time ');");</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (19, 'contact_id', 'mobile_number', 'Mobile Number');");</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (20, 'contact_id', 'phone_number', 'Phone Number');");</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (21, 'contact_id', 'email_id', 'Email ID');");</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (22, 'identity_proof', 'aadhaar', 'Aadhaar');");</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (23, 'identity_proof', 'passport ', 'Passport ');");</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (24, 'identity_proof', 'election_card', 'Election Card');");</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (25, 'identity_proof', 'driving_license', 'Driving License');");</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
-       VALUES (26, 'identity_proof', 'ration_card', 'Ration Card');");</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/projects/duty_roster_scheduler/readme/table_schemas.xlsx
+++ b/projects/duty_roster_scheduler/readme/table_schemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\projects\duty_roster_scheduler\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE738A-BA3B-4263-B6F6-8747042583D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76716877-9926-43BF-BFE5-D5AB297E3ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="10" xr2:uid="{D5AD342F-B044-4096-B18C-A0EE503DE9D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="12" xr2:uid="{D5AD342F-B044-4096-B18C-A0EE503DE9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="mnemonic_data" sheetId="4" r:id="rId10"/>
     <sheet name="department_data" sheetId="10" r:id="rId11"/>
     <sheet name="dutycatalog_data" sheetId="11" r:id="rId12"/>
+    <sheet name="employee_data" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="217">
   <si>
     <t>Employee number</t>
   </si>
@@ -415,9 +416,6 @@
     <t>duty_description</t>
   </si>
   <si>
-    <t>="conn.execute("&amp;CHAR(34)&amp;"INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -466,9 +464,6 @@
     <t>D101</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
@@ -488,6 +483,222 @@
   </si>
   <si>
     <t>D107</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>duty_name</t>
+  </si>
+  <si>
+    <t>salary_type</t>
+  </si>
+  <si>
+    <t>default_salary</t>
+  </si>
+  <si>
+    <t>default_department</t>
+  </si>
+  <si>
+    <t>DT101</t>
+  </si>
+  <si>
+    <t>DT102</t>
+  </si>
+  <si>
+    <t>DT103</t>
+  </si>
+  <si>
+    <t>DT104</t>
+  </si>
+  <si>
+    <t>DT105</t>
+  </si>
+  <si>
+    <t>Bobbin Winding</t>
+  </si>
+  <si>
+    <t>Machine Operation</t>
+  </si>
+  <si>
+    <t>Mending</t>
+  </si>
+  <si>
+    <t>Supervision</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>supervision</t>
+  </si>
+  <si>
+    <t>machine_operation</t>
+  </si>
+  <si>
+    <t>bobbin_winding</t>
+  </si>
+  <si>
+    <t>mending</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>MF0001</t>
+  </si>
+  <si>
+    <t>MF0002</t>
+  </si>
+  <si>
+    <t>MF0003</t>
+  </si>
+  <si>
+    <t>MF0004</t>
+  </si>
+  <si>
+    <t>MF0005</t>
+  </si>
+  <si>
+    <t>MF0006</t>
+  </si>
+  <si>
+    <t>MF0007</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>9999-12-31</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonard </t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prathima </t>
+  </si>
+  <si>
+    <t>Venati</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varun </t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maheshwarai </t>
+  </si>
+  <si>
+    <t>Vijayakumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shruthi </t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Bennet</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>Swaminathan</t>
+  </si>
+  <si>
+    <t>Jerald</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>1995-05-19</t>
+  </si>
+  <si>
+    <t>2000-07-01</t>
+  </si>
+  <si>
+    <t>1990-01-30</t>
+  </si>
+  <si>
+    <t>2001-05-19</t>
+  </si>
+  <si>
+    <t>1992-02-11</t>
+  </si>
+  <si>
+    <t>1999-09-22</t>
+  </si>
+  <si>
+    <t>2002-08-14</t>
   </si>
 </sst>
 </file>
@@ -529,8 +740,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,7 +1084,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B15"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,28 +1198,43 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6D7F0D-EB63-448C-9CEB-8C7A21091384}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,6 +2135,65 @@
        VALUES (43, 'number_of_leaves', 'eight', '8');");</v>
       </c>
     </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" t="str">
+        <f>"conn.execute(""INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES ("&amp;A52&amp;", '"&amp;B52&amp;"', '"&amp;C52&amp;"', '"&amp;D52&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (44, 'salary_type', 'daily', 'Daily');");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" ref="H53:H54" si="1">"conn.execute(""INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES ("&amp;A53&amp;", '"&amp;B53&amp;"', '"&amp;C53&amp;"', '"&amp;D53&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (45, 'salary_type', 'weekly', 'Weekly');");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>conn.execute("INSERT INTO mnemonic_data (id,mnemonic_id_group,mnemonic_id,description) \
+       VALUES (46, 'salary_type', 'monthly', 'Monthly');");</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1912,72 +2202,331 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EDAC52-C15F-477B-B341-0F6A199905B2}">
-  <dimension ref="B5:F12"/>
+  <dimension ref="B5:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
         <v>138</v>
       </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('"&amp;B6&amp;"', '"&amp;C6&amp;"', '"&amp;D6&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('D101', 'Administration', 'Administration');");</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" ref="F7:F12" si="0">"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('"&amp;B7&amp;"', '"&amp;C7&amp;"', '"&amp;D7&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('D102', 'Production', 'Production');");</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('D103', 'Sales', 'Sales');");</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('D104', 'Accounts', 'Accounts');");</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('D105', 'Human Resource', 'Human Resource');");</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('D106', 'Marketing', 'Marketing');");</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO department ( department_id, department_name ,description) \
+       VALUES ('D107', 'Maintenance', 'Maintenance');");</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0731AE-4A71-4811-8F62-CFBA8D7DAF6A}">
+  <dimension ref="A4:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="130.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="str">
+        <f>"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO duty_catalog ( duty_code,duty_name,duty_description,salary_type,default_salary,default_department) \
+       VALUES ('"&amp;A5&amp;"', '"&amp;B5&amp;"', '"&amp;C5&amp;"','"&amp;D5&amp;"',"&amp;E5&amp;",'"&amp;F5&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO duty_catalog ( duty_code,duty_name,duty_description,salary_type,default_salary,default_department) \
+       VALUES ('DT101', 'supervision', 'Supervision','Monthly',10000,'Production');");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>175</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H9" si="0">"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO duty_catalog ( duty_code,duty_name,duty_description,salary_type,default_salary,default_department) \
+       VALUES ('"&amp;A6&amp;"', '"&amp;B6&amp;"', '"&amp;C6&amp;"','"&amp;D6&amp;"',"&amp;E6&amp;",'"&amp;F6&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO duty_catalog ( duty_code,duty_name,duty_description,salary_type,default_salary,default_department) \
+       VALUES ('DT102', 'machine_operation', 'Machine Operation','Daily',300,'Production');");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
       <c r="B7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO duty_catalog ( duty_code,duty_name,duty_description,salary_type,default_salary,default_department) \
+       VALUES ('DT103', 'bobbin_winding', 'Bobbin Winding','Daily',300,'Production');");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
       <c r="B8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO duty_catalog ( duty_code,duty_name,duty_description,salary_type,default_salary,default_department) \
+       VALUES ('DT104', 'mending', 'Mending','Daily',300,'Production');");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
       <c r="B9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>146</v>
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO duty_catalog ( duty_code,duty_name,duty_description,salary_type,default_salary,default_department) \
+       VALUES ('DT105', 'manager', 'Manager','Monthly',10000,'Administration');");</v>
       </c>
     </row>
   </sheetData>
@@ -1986,14 +2535,417 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0731AE-4A71-4811-8F62-CFBA8D7DAF6A}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AFA2BF-9AA0-45ED-991D-F9A9C217DE40}">
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="213.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3">
+        <v>12000</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>"insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"');"</f>
+        <v>insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('MF0001','John ','Samuel','Daniel','M','1995-05-19','No Formal Education','2024-04-11','9999-12-31','Production','0','DT101','Daily','12000');</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q9" si="0">"insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"','"&amp;G4&amp;"','"&amp;H4&amp;"','"&amp;I4&amp;"','"&amp;J4&amp;"','"&amp;K4&amp;"','"&amp;L4&amp;"','"&amp;M4&amp;"','"&amp;N4&amp;"','"&amp;O4&amp;"');"</f>
+        <v>insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('MF0002','Leonard ','Lee','Jerald','M','2000-07-01','High School','2024-04-11','9999-12-31','Production','0','DT102','Daily','200');</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5">
+        <v>300</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('MF0003','Prathima ','Venati','Anand','F','1990-01-30','High School','2024-04-11','9999-12-31','Production','0','DT102','Daily','300');</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6">
+        <v>350</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('MF0004','Varun ','Reddy','Venkat','M','1992-02-11','Under Graduate','2024-04-11','9999-12-31','Production','0','DT102','Daily','350');</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('MF0005','Maheshwarai ','Vijayakumar','Swaminathan','M','2001-05-19','No Formal Education','2024-04-11','9999-12-31','Administration','0','DT103','Daily','200');</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8">
+        <v>8000</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('MF0006','Shruthi ','Gupta','Agarwal','M','2002-08-14','No Formal Education','2024-04-11','9999-12-31','Administration','0','DT104','Monthly','8000');</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9">
+        <v>11000</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into employee(employee_number,first_name,last_name,father_name,sex,date_of_birth,education ,employment_start_date,employment_end_date,department,leaves_per_month,primary_duty_code,salary_type_code,salary) values('MF0007','Richard ','John','Bennet','M','1999-09-22','No Formal Education','2024-04-11','9999-12-31','Human Resource','0','DT104','Monthly','11000');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2229,17 +3181,17 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,32 +3234,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/projects/duty_roster_scheduler/readme/table_schemas.xlsx
+++ b/projects/duty_roster_scheduler/readme/table_schemas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\projects\duty_roster_scheduler\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76716877-9926-43BF-BFE5-D5AB297E3ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FACCD-A59A-447A-A20A-16FA562D3DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="12" xr2:uid="{D5AD342F-B044-4096-B18C-A0EE503DE9D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="9" activeTab="13" xr2:uid="{D5AD342F-B044-4096-B18C-A0EE503DE9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="department_data" sheetId="10" r:id="rId11"/>
     <sheet name="dutycatalog_data" sheetId="11" r:id="rId12"/>
     <sheet name="employee_data" sheetId="13" r:id="rId13"/>
+    <sheet name="company_holidays_data" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="231">
   <si>
     <t>Employee number</t>
   </si>
@@ -699,6 +700,48 @@
   </si>
   <si>
     <t>2002-08-14</t>
+  </si>
+  <si>
+    <t>holiday_name</t>
+  </si>
+  <si>
+    <t>holiday_date</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>Pongal</t>
+  </si>
+  <si>
+    <t>Republic Day</t>
+  </si>
+  <si>
+    <t>Good Friday</t>
+  </si>
+  <si>
+    <t>May Day</t>
+  </si>
+  <si>
+    <t>Indpendence Day</t>
+  </si>
+  <si>
+    <t>Ayutha Pooja</t>
+  </si>
+  <si>
+    <t>Deepavali</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
@@ -2364,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0731AE-4A71-4811-8F62-CFBA8D7DAF6A}">
   <dimension ref="A4:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AFA2BF-9AA0-45ED-991D-F9A9C217DE40}">
   <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="H2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,6 +2993,186 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7404AD61-3A82-4D1B-AF87-4E15510B8AE6}">
+  <dimension ref="B3:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="119.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>20240101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240101', 'New Year', '');");</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>20240115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F14" si="0">"conn.execute("&amp;CHAR(34)&amp;"INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('"&amp;B5&amp;"', '"&amp;C5&amp;"', '"&amp;D5&amp;"');"");"</f>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240115', 'Pongal', '');");</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>20240126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240126', 'Republic Day', '');");</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>20240329</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240329', 'Good Friday', '');");</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>20240402</v>
+      </c>
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240402', 'Test1', '');");</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>20240410</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240410', 'Test2', '');");</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>20240501</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240501', 'May Day', '');");</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>20240815</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20240815', 'Indpendence Day', '');");</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>20241111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20241111', 'Ayutha Pooja', '');");</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>20241131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20241131', 'Deepavali', '');");</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>20241225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>conn.execute("INSERT INTO company_holidays ( holiday_date, holiday_name, description) \
+       VALUES ('20241225', 'Christmas', '');");</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3426F41D-0338-46CC-9152-72F8B2BC1901}">
   <dimension ref="A1:C6"/>

--- a/projects/duty_roster_scheduler/readme/table_schemas.xlsx
+++ b/projects/duty_roster_scheduler/readme/table_schemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\projects\duty_roster_scheduler\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FACCD-A59A-447A-A20A-16FA562D3DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F9ED5E-C8FE-42C2-AC4F-0CBE2914F8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="9" activeTab="13" xr2:uid="{D5AD342F-B044-4096-B18C-A0EE503DE9D7}"/>
   </bookViews>
@@ -2998,7 +2998,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
